--- a/Assets/Scripts/Game Status.xlsx
+++ b/Assets/Scripts/Game Status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>-- filling in the blank screens for the 4 info pages (biology, ecology, catching prey, survival threats)</t>
   </si>
@@ -28,9 +28,6 @@
     <t>-- a limit to how long you can run when chasing deer</t>
   </si>
   <si>
-    <t>-- inability to run through trees</t>
-  </si>
-  <si>
     <t>-- more realistic landscape</t>
   </si>
   <si>
@@ -67,14 +64,23 @@
     <t>-- fix animation bug in puma</t>
   </si>
   <si>
-    <t>-- puma walking / running controls</t>
+    <t>-- further landscape enhancements</t>
+  </si>
+  <si>
+    <t>-- refine puma walking / running controls</t>
+  </si>
+  <si>
+    <t>-- tree colliders</t>
+  </si>
+  <si>
+    <t>-- refine catch-prey animations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -157,7 +170,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +213,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -508,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P38"/>
+  <dimension ref="C2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="38.21875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="3.21875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="3.21875" style="7" customWidth="1"/>
@@ -594,7 +610,7 @@
     </row>
     <row r="12" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="6"/>
@@ -610,7 +626,7 @@
     </row>
     <row r="14" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="6"/>
@@ -620,8 +636,8 @@
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="3:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>4</v>
+      <c r="C16" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
@@ -632,7 +648,7 @@
     </row>
     <row r="18" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6"/>
       <c r="G18" s="9"/>
@@ -642,8 +658,8 @@
       <c r="C19" s="10"/>
     </row>
     <row r="20" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
-        <v>6</v>
+      <c r="C20" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="6"/>
       <c r="G20" s="6"/>
@@ -652,9 +668,9 @@
     <row r="21" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="3:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E22" s="6"/>
       <c r="G22" s="6"/>
@@ -663,9 +679,9 @@
     <row r="23" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
-        <v>7</v>
+    <row r="24" spans="3:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C24" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E24" s="6"/>
       <c r="G24" s="6"/>
@@ -674,9 +690,9 @@
     <row r="25" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="3:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="6"/>
       <c r="G26" s="6"/>
@@ -685,9 +701,9 @@
     <row r="27" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="C28" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="6"/>
@@ -698,7 +714,7 @@
     </row>
     <row r="30" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="6"/>
@@ -709,7 +725,7 @@
     </row>
     <row r="32" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="6"/>
@@ -720,27 +736,46 @@
     </row>
     <row r="34" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="6"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="36" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6"/>
       <c r="G36" s="6"/>
       <c r="I36" s="6"/>
     </row>
     <row r="38" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="40" spans="3:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="42" spans="3:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
